--- a/hvnl-2023.xlsx
+++ b/hvnl-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BCD6E-D78C-4AB2-A775-D5403F9FA1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F260645D-FF35-4D08-953E-A80413901B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="338" yWindow="1898" windowWidth="15247" windowHeight="11647" xr2:uid="{984DB97D-975D-4BED-9473-286497C9DD67}"/>
   </bookViews>
@@ -35,8 +35,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{294DA15A-71C7-4DF5-A239-6AD01DFEDDDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hvs-Amf rijweg
+Alle stops-&gt;timetabled</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>Naam</t>
   </si>
@@ -181,6 +216,12 @@
 [x] 622</t>
   </si>
   <si>
+    <t>1600:
+[x] 1620
+[x] 1624
+[x] 1625</t>
+  </si>
+  <si>
     <t>4300:
 [x] 4320
 [x] 4323</t>
@@ -254,12 +295,102 @@
   <si>
     <t>Git</t>
   </si>
+  <si>
+    <t>1500:
+[n] 1520
+[x] 1522
+[x] 1524
+[n] 1523
+[n] 1525</t>
+  </si>
+  <si>
+    <t>4900:
+[n] 4920
+[x] 4922
+[n] 4921
+[x] 4923</t>
+  </si>
+  <si>
+    <t>5800:
+[x] 5820
+[x] 5822
+[x] 5824</t>
+  </si>
+  <si>
+    <t>12 dec '22 (Ma)
+[0]</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>(Wo)</t>
+  </si>
+  <si>
+    <t>Amfge opstel https://sion-rail.nl/viewtopic.php?p=210260&amp;hilit=hvs#p210260</t>
+  </si>
+  <si>
+    <t>Hvs https://sion-rail.nl/viewtopic.php?p=205488&amp;hilit=hvs#p205488</t>
+  </si>
+  <si>
+    <t>Amfge https://sion-rail.nl/viewtopic.php?p=202131&amp;hilit=hvs#p202131</t>
+  </si>
+  <si>
+    <t>[x] Hvs PCC sh https://sion-rail.nl/viewtopic.php?p=208166&amp;hilit=hvs#p208166
+[x] Hvs https://sion-rail.nl/viewtopic.php?p=204047&amp;hilit=hvs#p204047
+[n] Hvs/Amf https://sion-rail.nl/viewtopic.php?p=196776&amp;hilit=hvs#p196776
+[n] Amfs https://sion-rail.nl/viewtopic.php?p=195383&amp;hilit=amfs#p195383</t>
+  </si>
+  <si>
+    <t>13 dec '22 (Di)
+14 dec '22 (Wo)</t>
+  </si>
+  <si>
+    <t>15 dec '22 (Do)
+[1]</t>
+  </si>
+  <si>
+    <t>600:
+[c] 625
+[c] 622</t>
+  </si>
+  <si>
+    <t>1600:
+[x] 1620
+[x] 1624
+[n] 1625</t>
+  </si>
+  <si>
+    <t>4300:
+[x] 4320
+[n] 4323</t>
+  </si>
+  <si>
+    <t>5700:
+[c] 5720</t>
+  </si>
+  <si>
+    <t>16 dec '22 (Vr)
+[2]</t>
+  </si>
+  <si>
+    <t>1600:
+[c] 1620
+[x] 1624
+[c] 1625</t>
+  </si>
+  <si>
+    <t>5800:
+[c] 5820
+[x] 5822
+[x] 5824</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +406,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -315,6 +473,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,11 +792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190F6B8-499E-453E-86FA-A6A484A0250A}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190F6B8-499E-453E-86FA-A6A484A0250A}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -642,289 +807,543 @@
     <col min="1" max="1" width="18.3984375" customWidth="1"/>
     <col min="2" max="2" width="19.3984375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B26">
@@ -932,5 +1351,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hvnl-2023.xlsx
+++ b/hvnl-2023.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F260645D-FF35-4D08-953E-A80413901B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFE4810-DBF5-45C9-9610-F320BFE29635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="1898" windowWidth="15247" windowHeight="11647" xr2:uid="{984DB97D-975D-4BED-9473-286497C9DD67}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{984DB97D-975D-4BED-9473-286497C9DD67}"/>
   </bookViews>
   <sheets>
-    <sheet name="5823" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard" sheetId="2" r:id="rId1"/>
+    <sheet name="5823" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>Naam</t>
   </si>
@@ -384,6 +385,127 @@
 [c] 5820
 [x] 5822
 [x] 5824</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5826 Avat-Wp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 februari '23</t>
+    </r>
+  </si>
+  <si>
+    <t>Done
+Avat v 08:53
+Amf a 09:00
+Amf v 09:01
+Hvs a 09:14
+Hvs v 09:16
+Wp a 09:31</t>
+  </si>
+  <si>
+    <t>140:
+- 143</t>
+  </si>
+  <si>
+    <t>240: -</t>
+  </si>
+  <si>
+    <t>500:
+- 524
+- 527</t>
+  </si>
+  <si>
+    <t>600: -</t>
+  </si>
+  <si>
+    <t>700:
+- 726
+- 729 n ivm +</t>
+  </si>
+  <si>
+    <t>1500:
+- 1526
+- 1527
+- 1529</t>
+  </si>
+  <si>
+    <t>1600:
+- 1629</t>
+  </si>
+  <si>
+    <t>1700: -</t>
+  </si>
+  <si>
+    <t>1800: -</t>
+  </si>
+  <si>
+    <t>2400: -</t>
+  </si>
+  <si>
+    <t>2600: -</t>
+  </si>
+  <si>
+    <t>4300:
+- 4326
+- 4329</t>
+  </si>
+  <si>
+    <t>4600: -</t>
+  </si>
+  <si>
+    <t>4900:
+- 4926
+- 4927
+- 4929</t>
+  </si>
+  <si>
+    <t>5600: -</t>
+  </si>
+  <si>
+    <t>5700:
+- 5729</t>
+  </si>
+  <si>
+    <t>5800:
+- 5825
+- 5827
+- 5829</t>
+  </si>
+  <si>
+    <t>11600:
+- 11626
+- 11631</t>
+  </si>
+  <si>
+    <t>11700: -</t>
+  </si>
+  <si>
+    <t>14900: -</t>
+  </si>
+  <si>
+    <t>31300:
+- 31312/31317</t>
+  </si>
+  <si>
+    <t>31400:
+- 31417</t>
   </si>
 </sst>
 </file>
@@ -460,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -477,6 +599,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,14 +917,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBB4507-B377-46DA-81E2-D94EDF88BDD5}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B24:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B25">
+    <sortCondition ref="B4:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190F6B8-499E-453E-86FA-A6A484A0250A}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
